--- a/rysunki/podatki.xlsx
+++ b/rysunki/podatki.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwo_a\hubiC\Shiny_projects\MMT_book\rysunki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwo_a\Documents\MMT_book\rysunki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
   <si>
     <t>Kategoria:</t>
   </si>
@@ -172,16 +172,20 @@
   </si>
   <si>
     <t>Rok</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -212,6 +216,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -251,14 +261,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -291,8 +302,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hiperłącze" xfId="3" builtinId="8"/>
     <cellStyle name="Kolumna" xfId="1"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Procentowy" xfId="2" builtinId="5"/>
@@ -2870,16 +2884,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>232409</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>110489</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>489584</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>367664</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>54292</xdr:rowOff>
+      <xdr:rowOff>8572</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3920,10 +3934,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L16"/>
+  <dimension ref="A4:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3933,7 +3947,7 @@
     <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>40</v>
       </c>
@@ -3967,8 +3981,11 @@
       <c r="L4" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
@@ -4005,8 +4022,11 @@
       <c r="L5" s="6">
         <v>1242</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="6">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
@@ -4043,8 +4063,11 @@
       <c r="L6" s="9">
         <v>79038.346000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="9">
+        <v>75107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
@@ -4061,7 +4084,7 @@
         <v>1.9014555791009236E-2</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" ref="E7:L7" si="1">E5/E6</f>
+        <f t="shared" ref="E7:M7" si="1">E5/E6</f>
         <v>1.355157245643151E-2</v>
       </c>
       <c r="F7" s="13">
@@ -4092,8 +4115,12 @@
         <f t="shared" si="1"/>
         <v>1.5713891583713047E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="13">
+        <f t="shared" si="1"/>
+        <v>3.2646757292928756E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -4102,7 +4129,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>40</v>
       </c>
@@ -4136,8 +4163,11 @@
       <c r="L9" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
@@ -4185,8 +4215,12 @@
         <f t="shared" si="2"/>
         <v>1.5713891583713047E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="13">
+        <f t="shared" ref="M10" si="3">M5/M6</f>
+        <v>3.2646757292928756E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
@@ -4225,8 +4259,12 @@
         <f>L12/L13</f>
         <v>9.0086480546326727E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="13">
+        <f>M12/M13</f>
+        <v>1.5019508575146265E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
@@ -4263,16 +4301,22 @@
       <c r="L12" s="11">
         <v>235863</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="M12" s="11">
+        <v>379022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="K13" s="15">
         <v>26097284</v>
       </c>
       <c r="L13" s="15">
         <v>26181842</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>25235313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>40</v>
       </c>
@@ -4306,8 +4350,11 @@
       <c r="L14" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
@@ -4344,26 +4391,32 @@
       <c r="L15" s="16">
         <v>4.8399999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="M15" s="16">
+        <v>5.5099999999999996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4683,6 +4736,33 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2452</v>
+      </c>
+      <c r="C13" s="9">
+        <v>75107</v>
+      </c>
+      <c r="D13" s="19">
+        <f>B13/C13</f>
+        <v>3.2646757292928756E-2</v>
+      </c>
+      <c r="E13">
+        <v>3.2646757292928756E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.5019508575146265E-2</v>
+      </c>
+      <c r="G13">
+        <v>379022</v>
+      </c>
+      <c r="H13">
+        <v>5.5100000000000003E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rysunki/podatki.xlsx
+++ b/rysunki/podatki.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwo_a\Documents\MMT_book\rysunki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwo.augustynski\Documents\MMT_book\rysunki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" activeTab="3"/>
+    <workbookView xWindow="1110" yWindow="1110" windowWidth="17280" windowHeight="8970" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OPIS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="53">
   <si>
     <t>Kategoria:</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>2020</t>
+  </si>
+  <si>
+    <t>https://dane.gov.pl/pl/dataset/191,informacje-dotyczace-rozliczenia-podatku-dochodowego-od-osob-fizycznych/resource/44040/table</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -183,7 +189,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -269,7 +275,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -299,11 +305,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperłącze" xfId="3" builtinId="8"/>
@@ -2921,15 +2933,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3258,13 +3270,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="200" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3272,12 +3284,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3285,12 +3297,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3298,12 +3310,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3311,7 +3323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3319,7 +3331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -3340,87 +3352,87 @@
       <selection activeCell="B13" sqref="B13:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
@@ -3485,9 +3497,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
@@ -3552,7 +3564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3623,7 +3635,7 @@
         <v>8816999016.2600002</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -3649,7 +3661,7 @@
         <v>206933387769.69</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C7" s="7">
         <f>C5/C6</f>
         <v>0.12604430795759794</v>
@@ -3679,7 +3691,7 @@
         <v>0.10929776993905096</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
@@ -3705,7 +3717,7 @@
         <v>349353.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C9" s="7">
         <f>C5/1000000/C8</f>
         <v>7.0899940448761162E-2</v>
@@ -3735,7 +3747,7 @@
         <v>6.4740551867934454E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
         <v>21</v>
       </c>
@@ -3758,7 +3770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -3791,7 +3803,7 @@
         <v>22617.357809159999</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
@@ -3824,7 +3836,7 @@
         <v>206933.38776969002</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>34</v>
       </c>
@@ -3857,7 +3869,7 @@
         <v>0.10929776993905095</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>36</v>
       </c>
@@ -3883,7 +3895,7 @@
         <v>349353.8</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
@@ -3934,20 +3946,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M16"/>
+  <dimension ref="A4:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>40</v>
       </c>
@@ -3984,8 +3996,11 @@
       <c r="M4" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
@@ -4025,8 +4040,11 @@
       <c r="M5" s="6">
         <v>2452</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="6">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
@@ -4066,8 +4084,11 @@
       <c r="M6" s="9">
         <v>75107</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="9">
+        <v>86009.421000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
@@ -4084,7 +4105,7 @@
         <v>1.9014555791009236E-2</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" ref="E7:M7" si="1">E5/E6</f>
+        <f t="shared" ref="E7:N7" si="1">E5/E6</f>
         <v>1.355157245643151E-2</v>
       </c>
       <c r="F7" s="13">
@@ -4119,8 +4140,12 @@
         <f t="shared" si="1"/>
         <v>3.2646757292928756E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="13">
+        <f t="shared" si="1"/>
+        <v>4.0088631686056808E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -4129,7 +4154,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>40</v>
       </c>
@@ -4166,8 +4191,11 @@
       <c r="M9" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
@@ -4216,11 +4244,15 @@
         <v>1.5713891583713047E-2</v>
       </c>
       <c r="M10" s="13">
-        <f t="shared" ref="M10" si="3">M5/M6</f>
+        <f t="shared" ref="M10:N10" si="3">M5/M6</f>
         <v>3.2646757292928756E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="13">
+        <f t="shared" si="3"/>
+        <v>4.0088631686056808E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
@@ -4263,8 +4295,12 @@
         <f>M12/M13</f>
         <v>1.5019508575146265E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13">
+        <f>N12/N13</f>
+        <v>1.7718153275112201E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
@@ -4304,8 +4340,11 @@
       <c r="M12" s="11">
         <v>379022</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="N12" s="11">
+        <v>446800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="K13" s="15">
         <v>26097284</v>
       </c>
@@ -4315,8 +4354,11 @@
       <c r="M13">
         <v>25235313</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>25217075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>40</v>
       </c>
@@ -4353,8 +4395,11 @@
       <c r="M14" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
@@ -4394,10 +4439,24 @@
       <c r="M15" s="16">
         <v>5.5099999999999996E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="N15" s="16">
+        <v>7.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>2602476+749+763681+936+19469888+379022+69525</f>
+        <v>23286277</v>
       </c>
     </row>
   </sheetData>
@@ -4413,44 +4472,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -4476,7 +4537,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -4502,7 +4563,7 @@
         <v>1.89E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -4528,7 +4589,7 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -4554,7 +4615,7 @@
         <v>2.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -4580,7 +4641,7 @@
         <v>2.47E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4606,7 +4667,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4632,7 +4693,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -4658,7 +4719,7 @@
         <v>3.04E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -4684,7 +4745,7 @@
         <v>3.4599999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -4710,7 +4771,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -4736,7 +4797,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -4746,7 +4807,7 @@
       <c r="C13" s="9">
         <v>75107</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <f>B13/C13</f>
         <v>3.2646757292928756E-2</v>
       </c>
@@ -4761,6 +4822,32 @@
       </c>
       <c r="H13">
         <v>5.5100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>2021</v>
+      </c>
+      <c r="B14">
+        <v>3448</v>
+      </c>
+      <c r="C14">
+        <v>86009.421000000002</v>
+      </c>
+      <c r="D14">
+        <v>4.0088631686056808E-2</v>
+      </c>
+      <c r="E14">
+        <v>4.0088631686056808E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.7718153275112201E-2</v>
+      </c>
+      <c r="G14">
+        <v>446800</v>
+      </c>
+      <c r="H14">
+        <v>7.2700000000000001E-2</v>
       </c>
     </row>
   </sheetData>
